--- a/stats/harvard/disease_type=all failure-type-ignored=no-disease-found for app=any.xlsx
+++ b/stats/harvard/disease_type=all failure-type-ignored=no-disease-found for app=any.xlsx
@@ -766,124 +766,124 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.23</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.017</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.13</v>
-      </c>
       <c r="E4" t="n">
-        <v>0.225</v>
+        <v>0.161</v>
       </c>
       <c r="F4" t="n">
-        <v>0.036</v>
+        <v>0.012</v>
       </c>
       <c r="G4" t="n">
-        <v>0.189</v>
+        <v>0.109</v>
       </c>
       <c r="H4" t="n">
-        <v>0.213</v>
+        <v>0.191</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002</v>
+        <v>0.011</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04</v>
+        <v>0.107</v>
       </c>
       <c r="K4" t="n">
-        <v>0.333</v>
+        <v>0.324</v>
       </c>
       <c r="L4" t="n">
-        <v>0.083</v>
+        <v>0.098</v>
       </c>
       <c r="M4" t="n">
-        <v>0.289</v>
+        <v>0.314</v>
       </c>
       <c r="N4" t="n">
-        <v>0.433</v>
+        <v>0.253</v>
       </c>
       <c r="O4" t="n">
-        <v>0.059</v>
+        <v>0.025</v>
       </c>
       <c r="P4" t="n">
-        <v>0.244</v>
+        <v>0.16</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="R4" t="n">
-        <v>0.19</v>
+        <v>0.229</v>
       </c>
       <c r="S4" t="n">
-        <v>0.436</v>
+        <v>0.478</v>
       </c>
       <c r="T4" t="n">
-        <v>0.325</v>
+        <v>0.269</v>
       </c>
       <c r="U4" t="n">
-        <v>0.151</v>
+        <v>0.096</v>
       </c>
       <c r="V4" t="n">
-        <v>0.388</v>
+        <v>0.311</v>
       </c>
       <c r="W4" t="n">
-        <v>0.304</v>
+        <v>0.259</v>
       </c>
       <c r="X4" t="n">
-        <v>0.004</v>
+        <v>0.043</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.065</v>
+        <v>0.208</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.553</v>
+        <v>0.429</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.164</v>
+        <v>0.136</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.406</v>
+        <v>0.369</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.171</v>
+        <v>0.134</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.023</v>
+        <v>0.006</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.15</v>
+        <v>0.077</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.095</v>
+        <v>1.997</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.122</v>
+        <v>0.097</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.35</v>
+        <v>0.311</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.7</v>
+        <v>0.629</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.21</v>
+        <v>0.191</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.458</v>
+        <v>0.437</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.703</v>
+        <v>0.625</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.095</v>
+        <v>0.127</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.309</v>
+        <v>0.356</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.698</v>
+        <v>0.666</v>
       </c>
     </row>
     <row r="5">
@@ -893,124 +893,124 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="C5" t="n">
-        <v>0.29</v>
+        <v>0.16</v>
       </c>
       <c r="D5" t="n">
-        <v>0.539</v>
+        <v>0.4</v>
       </c>
       <c r="E5" t="n">
-        <v>1.1</v>
+        <v>0.714</v>
       </c>
       <c r="F5" t="n">
-        <v>0.89</v>
+        <v>0.204</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.452</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0.829</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.142</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.377</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7</v>
+        <v>0.629</v>
       </c>
       <c r="L5" t="n">
-        <v>0.21</v>
+        <v>0.233</v>
       </c>
       <c r="M5" t="n">
-        <v>0.458</v>
+        <v>0.483</v>
       </c>
       <c r="N5" t="n">
-        <v>1.4</v>
+        <v>0.771</v>
       </c>
       <c r="O5" t="n">
-        <v>0.44</v>
+        <v>0.176</v>
       </c>
       <c r="P5" t="n">
-        <v>0.663</v>
+        <v>0.42</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.7</v>
+        <v>0.543</v>
       </c>
       <c r="R5" t="n">
-        <v>0.21</v>
+        <v>0.248</v>
       </c>
       <c r="S5" t="n">
-        <v>0.458</v>
+        <v>0.498</v>
       </c>
       <c r="T5" t="n">
-        <v>0.7</v>
+        <v>0.514</v>
       </c>
       <c r="U5" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="V5" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.29</v>
+        <v>0.16</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.539</v>
+        <v>0.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.49</v>
+        <v>0.16</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.7</v>
+        <v>2.571</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.2</v>
+        <v>0.028</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.447</v>
+        <v>0.167</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.7</v>
+        <v>0.714</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.21</v>
+        <v>0.204</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.458</v>
+        <v>0.452</v>
       </c>
       <c r="AL5" t="n">
-        <v>1</v>
+        <v>0.886</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>0.101</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>0.318</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.9</v>
+        <v>0.857</v>
       </c>
     </row>
     <row r="6">
@@ -1020,72 +1020,72 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.366</v>
+        <v>0.426</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>0.374</v>
+        <v>0.263</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>0.351</v>
+        <v>0.31</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>0.451</v>
+        <v>0.428</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>0.661</v>
+        <v>0.381</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
-        <v>0.646</v>
+        <v>0.521</v>
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
-        <v>0.444</v>
+        <v>0.353</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>0.466</v>
+        <v>0.391</v>
       </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="n">
-        <v>0.296</v>
+        <v>0.23</v>
       </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="n">
-        <v>2.344</v>
+        <v>2.244</v>
       </c>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="n">
-        <v>0.7</v>
+        <v>0.669</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
-        <v>0.826</v>
+        <v>0.733</v>
       </c>
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="n">
-        <v>0.781</v>
+        <v>0.748</v>
       </c>
     </row>
     <row r="7">
@@ -1095,72 +1095,72 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.569</v>
+        <v>0.592</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>0.619</v>
+        <v>0.423</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>0.575</v>
+        <v>0.497</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>0.574</v>
+        <v>0.529</v>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>0.968</v>
+        <v>0.547</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
-        <v>0.677</v>
+        <v>0.534</v>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="n">
-        <v>0.569</v>
+        <v>0.435</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>0.8</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="n">
-        <v>0.527</v>
+        <v>0.401</v>
       </c>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="n">
-        <v>2.54</v>
+        <v>2.428</v>
       </c>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="n">
-        <v>0.7</v>
+        <v>0.695</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="n">
-        <v>0.922</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="n">
-        <v>0.847</v>
+        <v>0.8090000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -1170,124 +1170,124 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.769</v>
+        <v>0.732</v>
       </c>
       <c r="C8" t="n">
-        <v>0.193</v>
+        <v>0.162</v>
       </c>
       <c r="D8" t="n">
-        <v>0.439</v>
+        <v>0.402</v>
       </c>
       <c r="E8" t="n">
-        <v>0.751</v>
+        <v>0.58</v>
       </c>
       <c r="F8" t="n">
-        <v>0.303</v>
+        <v>0.174</v>
       </c>
       <c r="G8" t="n">
-        <v>0.55</v>
+        <v>0.418</v>
       </c>
       <c r="H8" t="n">
-        <v>0.852</v>
+        <v>0.707</v>
       </c>
       <c r="I8" t="n">
-        <v>0.054</v>
+        <v>0.146</v>
       </c>
       <c r="J8" t="n">
-        <v>0.233</v>
+        <v>0.382</v>
       </c>
       <c r="K8" t="n">
         <v>0.55</v>
       </c>
       <c r="L8" t="n">
+        <v>0.206</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.453</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.709</v>
+      </c>
+      <c r="O8" t="n">
         <v>0.172</v>
       </c>
-      <c r="M8" t="n">
+      <c r="P8" t="n">
         <v>0.415</v>
       </c>
-      <c r="N8" t="n">
-        <v>1.239</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.388</v>
-      </c>
       <c r="Q8" t="n">
-        <v>0.626</v>
+        <v>0.522</v>
       </c>
       <c r="R8" t="n">
-        <v>0.188</v>
+        <v>0.236</v>
       </c>
       <c r="S8" t="n">
-        <v>0.433</v>
+        <v>0.486</v>
       </c>
       <c r="T8" t="n">
-        <v>0.613</v>
+        <v>0.468</v>
       </c>
       <c r="U8" t="n">
-        <v>0.478</v>
+        <v>0.222</v>
       </c>
       <c r="V8" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.471</v>
       </c>
       <c r="W8" t="n">
-        <v>0.789</v>
+        <v>0.729</v>
       </c>
       <c r="X8" t="n">
-        <v>0.046</v>
+        <v>0.157</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.216</v>
+        <v>0.396</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.8</v>
+        <v>0.719</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.21</v>
+        <v>0.155</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.458</v>
+        <v>0.393</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.728</v>
+        <v>0.681</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.285</v>
+        <v>0.164</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.534</v>
+        <v>0.405</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.502</v>
+        <v>2.451</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.103</v>
+        <v>0.049</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.321</v>
+        <v>0.222</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.7</v>
+        <v>0.714</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.21</v>
+        <v>0.204</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.458</v>
+        <v>0.452</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.963</v>
+        <v>0.854</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.012</v>
+        <v>0.105</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.111</v>
+        <v>0.324</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.834</v>
+        <v>0.8169999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -1297,52 +1297,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6</v>
+        <v>0.657</v>
       </c>
       <c r="C9" t="n">
-        <v>0.24</v>
+        <v>0.225</v>
       </c>
       <c r="D9" t="n">
-        <v>0.49</v>
+        <v>0.475</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4</v>
+        <v>0.429</v>
       </c>
       <c r="F9" t="n">
-        <v>0.24</v>
+        <v>0.245</v>
       </c>
       <c r="G9" t="n">
-        <v>0.49</v>
+        <v>0.495</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7</v>
+        <v>0.571</v>
       </c>
       <c r="I9" t="n">
-        <v>0.21</v>
+        <v>0.245</v>
       </c>
       <c r="J9" t="n">
-        <v>0.458</v>
+        <v>0.495</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4</v>
+        <v>0.457</v>
       </c>
       <c r="L9" t="n">
-        <v>0.24</v>
+        <v>0.248</v>
       </c>
       <c r="M9" t="n">
-        <v>0.49</v>
+        <v>0.498</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0.629</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>0.233</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>0.483</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.5</v>
+        <v>0.486</v>
       </c>
       <c r="R9" t="n">
         <v>0.25</v>
@@ -1351,70 +1351,70 @@
         <v>0.5</v>
       </c>
       <c r="T9" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="U9" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="V9" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="W9" t="n">
-        <v>0.5</v>
+        <v>0.629</v>
       </c>
       <c r="X9" t="n">
-        <v>0.25</v>
+        <v>0.233</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.5</v>
+        <v>0.483</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.458</v>
+        <v>0.49</v>
       </c>
       <c r="AC9" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>2.257</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.191</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.437</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AN9" t="n">
         <v>0.4</v>
       </c>
-      <c r="AD9" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0.458</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>0.3</v>
-      </c>
       <c r="AO9" t="n">
-        <v>0.733</v>
+        <v>0.752</v>
       </c>
     </row>
     <row r="10">
@@ -1424,61 +1424,61 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8</v>
+        <v>0.743</v>
       </c>
       <c r="C10" t="n">
-        <v>0.16</v>
+        <v>0.191</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4</v>
+        <v>0.437</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7</v>
+        <v>0.629</v>
       </c>
       <c r="F10" t="n">
-        <v>0.21</v>
+        <v>0.233</v>
       </c>
       <c r="G10" t="n">
-        <v>0.458</v>
+        <v>0.483</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9</v>
+        <v>0.743</v>
       </c>
       <c r="I10" t="n">
-        <v>0.09</v>
+        <v>0.191</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3</v>
+        <v>0.437</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7</v>
+        <v>0.629</v>
       </c>
       <c r="L10" t="n">
-        <v>0.21</v>
+        <v>0.233</v>
       </c>
       <c r="M10" t="n">
-        <v>0.458</v>
+        <v>0.483</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0.743</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>0.191</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>0.437</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.7</v>
+        <v>0.543</v>
       </c>
       <c r="R10" t="n">
-        <v>0.21</v>
+        <v>0.248</v>
       </c>
       <c r="S10" t="n">
-        <v>0.458</v>
+        <v>0.498</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5</v>
+        <v>0.514</v>
       </c>
       <c r="U10" t="n">
         <v>0.25</v>
@@ -1487,13 +1487,13 @@
         <v>0.5</v>
       </c>
       <c r="W10" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Z10" t="n">
         <v>0.8</v>
@@ -1505,43 +1505,43 @@
         <v>0.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.6</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.24</v>
+        <v>0.216</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.49</v>
+        <v>0.464</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.6</v>
+        <v>2.571</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.09</v>
+        <v>0.028</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.3</v>
+        <v>0.167</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.7</v>
+        <v>0.714</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.21</v>
+        <v>0.204</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.458</v>
+        <v>0.452</v>
       </c>
       <c r="AL10" t="n">
-        <v>1</v>
+        <v>0.886</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>0.101</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>0.318</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.867</v>
+        <v>0.857</v>
       </c>
     </row>
     <row r="11">
@@ -1560,52 +1560,52 @@
         <v>0.4</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7</v>
+        <v>0.714</v>
       </c>
       <c r="F11" t="n">
-        <v>0.21</v>
+        <v>0.204</v>
       </c>
       <c r="G11" t="n">
-        <v>0.458</v>
+        <v>0.452</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0.829</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.142</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.377</v>
       </c>
       <c r="K11" t="n">
-        <v>0.7</v>
+        <v>0.629</v>
       </c>
       <c r="L11" t="n">
-        <v>0.21</v>
+        <v>0.233</v>
       </c>
       <c r="M11" t="n">
-        <v>0.458</v>
+        <v>0.483</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0.771</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>0.176</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.7</v>
+        <v>0.543</v>
       </c>
       <c r="R11" t="n">
-        <v>0.21</v>
+        <v>0.248</v>
       </c>
       <c r="S11" t="n">
-        <v>0.458</v>
+        <v>0.498</v>
       </c>
       <c r="T11" t="n">
-        <v>0.5</v>
+        <v>0.514</v>
       </c>
       <c r="U11" t="n">
         <v>0.25</v>
@@ -1614,13 +1614,13 @@
         <v>0.5</v>
       </c>
       <c r="W11" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Z11" t="n">
         <v>0.8</v>
@@ -1632,43 +1632,43 @@
         <v>0.4</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.8</v>
+        <v>0.743</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.16</v>
+        <v>0.191</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.4</v>
+        <v>0.437</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.6</v>
+        <v>2.571</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.09</v>
+        <v>0.028</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.3</v>
+        <v>0.167</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.7</v>
+        <v>0.714</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.21</v>
+        <v>0.204</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.458</v>
+        <v>0.452</v>
       </c>
       <c r="AL11" t="n">
-        <v>1</v>
+        <v>0.886</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>0.101</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>0.318</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.867</v>
+        <v>0.857</v>
       </c>
     </row>
     <row r="12">
@@ -1678,103 +1678,103 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.25</v>
+        <v>1.357</v>
       </c>
       <c r="C12" t="n">
-        <v>0.188</v>
+        <v>0.73</v>
       </c>
       <c r="D12" t="n">
-        <v>0.433</v>
+        <v>0.854</v>
       </c>
       <c r="E12" t="n">
-        <v>1.571</v>
+        <v>1.76</v>
       </c>
       <c r="F12" t="n">
-        <v>0.531</v>
+        <v>1.142</v>
       </c>
       <c r="G12" t="n">
-        <v>0.728</v>
+        <v>1.069</v>
       </c>
       <c r="H12" t="n">
-        <v>1.7</v>
+        <v>1.655</v>
       </c>
       <c r="I12" t="n">
-        <v>1.61</v>
+        <v>1.398</v>
       </c>
       <c r="J12" t="n">
-        <v>1.269</v>
+        <v>1.183</v>
       </c>
       <c r="K12" t="n">
-        <v>1.857</v>
+        <v>1.455</v>
       </c>
       <c r="L12" t="n">
-        <v>0.98</v>
+        <v>0.612</v>
       </c>
       <c r="M12" t="n">
-        <v>0.99</v>
+        <v>0.782</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>1.296</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>0.505</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="Q12" t="n">
+        <v>1.105</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.307</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.278</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.312</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.5580000000000001</v>
+      </c>
+      <c r="W12" t="n">
         <v>1.286</v>
       </c>
-      <c r="R12" t="n">
-        <v>0.204</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0.452</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.7</v>
-      </c>
       <c r="X12" t="n">
-        <v>0.61</v>
+        <v>0.347</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.781</v>
+        <v>0.589</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.25</v>
+        <v>1.321</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.438</v>
+        <v>0.361</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.661</v>
+        <v>0.601</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.778</v>
+        <v>1.929</v>
       </c>
       <c r="AD12" t="n">
-        <v>3.728</v>
+        <v>3.709</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.931</v>
+        <v>1.926</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.433</v>
+        <v>3.362</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.222</v>
+        <v>0.253</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.471</v>
+        <v>0.503</v>
       </c>
       <c r="AI12" t="n">
         <v>1</v>
@@ -1786,16 +1786,16 @@
         <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>1.1</v>
+        <v>1.097</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.09</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.3</v>
+        <v>0.296</v>
       </c>
       <c r="AO12" t="n">
-        <v>1.144</v>
+        <v>1.121</v>
       </c>
     </row>
     <row r="13">
@@ -1805,124 +1805,124 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.1</v>
+        <v>3.486</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.393</v>
       </c>
       <c r="D13" t="n">
-        <v>0.831</v>
+        <v>1.18</v>
       </c>
       <c r="E13" t="n">
-        <v>4.875</v>
+        <v>4.667</v>
       </c>
       <c r="F13" t="n">
-        <v>0.109</v>
+        <v>0.404</v>
       </c>
       <c r="G13" t="n">
-        <v>0.331</v>
+        <v>0.636</v>
       </c>
       <c r="H13" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="I13" t="n">
-        <v>0.36</v>
+        <v>0.697</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6</v>
+        <v>0.835</v>
       </c>
       <c r="K13" t="n">
-        <v>2.4</v>
+        <v>2.323</v>
       </c>
       <c r="L13" t="n">
-        <v>0.44</v>
+        <v>0.541</v>
       </c>
       <c r="M13" t="n">
-        <v>0.663</v>
+        <v>0.736</v>
       </c>
       <c r="N13" t="n">
-        <v>3.4</v>
+        <v>3.229</v>
       </c>
       <c r="O13" t="n">
-        <v>0.24</v>
+        <v>0.748</v>
       </c>
       <c r="P13" t="n">
-        <v>0.49</v>
+        <v>0.865</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.375</v>
+        <v>1.24</v>
       </c>
       <c r="R13" t="n">
-        <v>0.234</v>
+        <v>0.182</v>
       </c>
       <c r="S13" t="n">
-        <v>0.484</v>
+        <v>0.427</v>
       </c>
       <c r="T13" t="n">
-        <v>2.333</v>
+        <v>2.409</v>
       </c>
       <c r="U13" t="n">
-        <v>0.889</v>
+        <v>0.878</v>
       </c>
       <c r="V13" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="W13" t="n">
-        <v>3.6</v>
+        <v>4.229</v>
       </c>
       <c r="X13" t="n">
-        <v>2.24</v>
+        <v>7.605</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.497</v>
+        <v>2.758</v>
       </c>
       <c r="Z13" t="n">
-        <v>2</v>
+        <v>2.818</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.8</v>
+        <v>4.028</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.342</v>
+        <v>2.007</v>
       </c>
       <c r="AC13" t="n">
-        <v>6.7</v>
+        <v>6.294</v>
       </c>
       <c r="AD13" t="n">
-        <v>2.81</v>
+        <v>2.325</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.676</v>
+        <v>1.525</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.6</v>
+        <v>4.628</v>
       </c>
       <c r="AG13" t="n">
-        <v>1.01</v>
+        <v>0.754</v>
       </c>
       <c r="AH13" t="n">
-        <v>1.005</v>
+        <v>0.868</v>
       </c>
       <c r="AI13" t="n">
-        <v>1</v>
+        <v>1.257</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>0.362</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>0.602</v>
       </c>
       <c r="AL13" t="n">
-        <v>1.9</v>
+        <v>1.771</v>
       </c>
       <c r="AM13" t="n">
-        <v>1.49</v>
+        <v>0.862</v>
       </c>
       <c r="AN13" t="n">
-        <v>1.221</v>
+        <v>0.928</v>
       </c>
       <c r="AO13" t="n">
-        <v>1.533</v>
+        <v>1.543</v>
       </c>
     </row>
   </sheetData>

--- a/stats/harvard/disease_type=all failure-type-ignored=no-disease-found for app=any.xlsx
+++ b/stats/harvard/disease_type=all failure-type-ignored=no-disease-found for app=any.xlsx
@@ -856,7 +856,7 @@
         <v>0.077</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.997</v>
+        <v>0.743</v>
       </c>
       <c r="AG4" t="n">
         <v>0.097</v>
@@ -983,7 +983,7 @@
         <v>0.4</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.571</v>
+        <v>0.971</v>
       </c>
       <c r="AG5" t="n">
         <v>0.028</v>
@@ -1070,7 +1070,7 @@
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="n">
-        <v>2.244</v>
+        <v>0.842</v>
       </c>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr"/>
@@ -1145,7 +1145,7 @@
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="n">
-        <v>2.428</v>
+        <v>0.915</v>
       </c>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
@@ -1260,7 +1260,7 @@
         <v>0.405</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.451</v>
+        <v>0.883</v>
       </c>
       <c r="AG8" t="n">
         <v>0.049</v>
@@ -1387,7 +1387,7 @@
         <v>0.495</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.257</v>
+        <v>0.743</v>
       </c>
       <c r="AG9" t="n">
         <v>0.191</v>
@@ -1514,7 +1514,7 @@
         <v>0.464</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.571</v>
+        <v>0.971</v>
       </c>
       <c r="AG10" t="n">
         <v>0.028</v>
@@ -1641,7 +1641,7 @@
         <v>0.437</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.571</v>
+        <v>0.971</v>
       </c>
       <c r="AG11" t="n">
         <v>0.028</v>
@@ -1768,7 +1768,7 @@
         <v>1.926</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.362</v>
+        <v>1.265</v>
       </c>
       <c r="AG12" t="n">
         <v>0.253</v>
@@ -1895,7 +1895,7 @@
         <v>1.525</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.628</v>
+        <v>1.6</v>
       </c>
       <c r="AG13" t="n">
         <v>0.754</v>
